--- a/Tareas a realizar.xlsx
+++ b/Tareas a realizar.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Documents\Repositorios\Proyectos LMSGI\Kingdom-of-Cocretas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmcano\Documents\repos\Kingdom-of-Cocretas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B71C86-F349-413E-8514-63434B9B5501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B553D2D-B7F5-4860-B13D-11381E019EEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tareas</t>
   </si>
@@ -48,19 +47,43 @@
     <t>Elaboración de la página de portada</t>
   </si>
   <si>
-    <t>Elaboración de las 3 páginas de contenido</t>
-  </si>
-  <si>
     <t>Investigación sobre estilo y resolución de dudas</t>
   </si>
   <si>
     <t>Estructurar el posicionamiento y cajas de las 5 páginas.</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Carrusel</t>
+  </si>
+  <si>
+    <t>Adri</t>
+  </si>
+  <si>
+    <t>Pagina 1: origenes e historia</t>
+  </si>
+  <si>
+    <t>Pagina 2: 'recetas' de flores</t>
+  </si>
+  <si>
+    <t>Pagina 3: 'Tipos de flores' + respositorio de fotos</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Ale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,10 +134,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5939C-D55D-44B0-8388-49A4FF4D198E}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,40 +474,71 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
